--- a/abc.xlsx
+++ b/abc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whtjd\Desktop\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whtjd\Desktop\Josunghyuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D48A2-90B4-4D8F-87C1-2D78207313BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6D5C37-86C7-4DFB-A349-300C9EEC448B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="아파트 매매 실거래가" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>서울특별시 동대문구 답십리동</t>
   </si>
@@ -125,46 +125,6 @@
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>sigungu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bungi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aptname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>architectureyear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractyearmonth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contractday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,34 +512,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>83000</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -593,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -602,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>83000</v>
+        <v>98000</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -625,19 +585,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>98000</v>
+        <v>79700</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -651,31 +611,31 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>79700</v>
+        <v>68700</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -683,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>68700</v>
+        <v>82300</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -715,31 +675,31 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
-        <v>82300</v>
+        <v>39620</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -759,50 +719,18 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
-        <v>39620</v>
+        <v>42700</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>42700</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
         <v>33</v>
       </c>
     </row>

--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whtjd\Desktop\Josunghyuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6D5C37-86C7-4DFB-A349-300C9EEC448B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43C831C-6163-49BE-9C38-A2A18F214039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="아파트 매매 실거래가" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>서울특별시 동대문구 답십리동</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>서울특별시 동대문구 장안동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,7 +497,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +612,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -672,7 +676,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -704,7 +708,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
